--- a/firebase_data_spyEnsembleVM.xlsx
+++ b/firebase_data_spyEnsembleVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E493"/>
+  <dimension ref="A1:E494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8813,11 +8813,28 @@
       <c r="B493" s="2" t="n">
         <v>45792.47916666666</v>
       </c>
-      <c r="C493" t="inlineStr"/>
+      <c r="C493" t="n">
+        <v>1</v>
+      </c>
       <c r="D493" t="n">
         <v>1</v>
       </c>
-      <c r="E493" t="inlineStr"/>
+      <c r="E493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="n">
+        <v>0</v>
+      </c>
+      <c r="E494" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyEnsembleVM.xlsx
+++ b/firebase_data_spyEnsembleVM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E496"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8864,11 +8864,28 @@
       <c r="B496" s="2" t="n">
         <v>45797.47916666666</v>
       </c>
-      <c r="C496" t="inlineStr"/>
+      <c r="C496" t="n">
+        <v>0</v>
+      </c>
       <c r="D496" t="n">
         <v>1</v>
       </c>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>45798.47916666666</v>
+      </c>
+      <c r="C497" t="inlineStr"/>
+      <c r="D497" t="n">
+        <v>1</v>
+      </c>
+      <c r="E497" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
